--- a/combined_data/combined_small_triggerplant.xlsx
+++ b/combined_data/combined_small_triggerplant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/Desktop/Monash_University/FIT3162/FIT3162-Team21/combined_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF66658B-46CA-164E-B967-FBE68293F7D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA72A8B7-8213-8B45-A55F-7B7992F189D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{EE0DD7DA-8443-624B-B57F-696D7DEDFE13}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="36">
   <si>
     <t>Small Triggerplant</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>FLORA</t>
-  </si>
-  <si>
-    <t>FAUNA</t>
   </si>
   <si>
     <t>Observation with supporting evidence</t>
@@ -495,96 +492,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC5ECA6-1EEB-D64D-BE9C-718A27AE5D79}">
   <dimension ref="A1:AB65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K30" workbookViewId="0">
-      <selection activeCell="AD58" sqref="AD58"/>
+    <sheetView tabSelected="1" topLeftCell="M29" workbookViewId="0">
+      <selection activeCell="AE54" sqref="AE54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>28</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>33</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -1444,7 +1441,7 @@
         <v>190.3999938964844</v>
       </c>
       <c r="AB11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
@@ -1530,7 +1527,7 @@
         <v>347.39999389648438</v>
       </c>
       <c r="AB12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
@@ -1616,7 +1613,7 @@
         <v>223.3999938964844</v>
       </c>
       <c r="AB13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
@@ -1702,7 +1699,7 @@
         <v>98.599998474121094</v>
       </c>
       <c r="AB14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
@@ -1725,7 +1722,7 @@
         <v>142.70706000000001</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>22</v>
@@ -1788,7 +1785,7 @@
         <v>211.3999938964844</v>
       </c>
       <c r="AB15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
@@ -1811,7 +1808,7 @@
         <v>142.44972000000001</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>45</v>
@@ -1874,7 +1871,7 @@
         <v>158.80000305175781</v>
       </c>
       <c r="AB16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
@@ -1960,7 +1957,7 @@
         <v>148.0545959472656</v>
       </c>
       <c r="AB17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
@@ -2046,7 +2043,7 @@
         <v>109.967399597168</v>
       </c>
       <c r="AB18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
@@ -2069,7 +2066,7 @@
         <v>141.86825999999999</v>
       </c>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>57</v>
@@ -2132,7 +2129,7 @@
         <v>64.556396484375</v>
       </c>
       <c r="AB19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
@@ -2218,7 +2215,7 @@
         <v>149.16960144042969</v>
       </c>
       <c r="AB20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
@@ -2304,7 +2301,7 @@
         <v>162.4595031738281</v>
       </c>
       <c r="AB21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
@@ -2390,7 +2387,7 @@
         <v>221</v>
       </c>
       <c r="AB22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
@@ -2476,7 +2473,7 @@
         <v>109.9367980957031</v>
       </c>
       <c r="AB23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
@@ -2562,7 +2559,7 @@
         <v>148.6000061035156</v>
       </c>
       <c r="AB24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
@@ -2585,7 +2582,7 @@
         <v>144.94229999999999</v>
       </c>
       <c r="G25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H25">
         <v>101</v>
@@ -2648,7 +2645,7 @@
         <v>172</v>
       </c>
       <c r="AB25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
@@ -2734,7 +2731,7 @@
         <v>160.03900146484381</v>
       </c>
       <c r="AB26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
@@ -2820,7 +2817,7 @@
         <v>151</v>
       </c>
       <c r="AB27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
@@ -2906,7 +2903,7 @@
         <v>197.80000305175781</v>
       </c>
       <c r="AB28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
@@ -2992,7 +2989,7 @@
         <v>146.32000732421881</v>
       </c>
       <c r="AB29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
@@ -3015,7 +3012,7 @@
         <v>145.16749999999999</v>
       </c>
       <c r="G30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3078,7 +3075,7 @@
         <v>100.59999847412109</v>
       </c>
       <c r="AB30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
@@ -3164,7 +3161,7 @@
         <v>141.64649963378909</v>
       </c>
       <c r="AB31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
@@ -3187,7 +3184,7 @@
         <v>141.86870999999999</v>
       </c>
       <c r="G32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32">
         <v>47</v>
@@ -3250,7 +3247,7 @@
         <v>64.556396484375</v>
       </c>
       <c r="AB32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
@@ -3336,7 +3333,7 @@
         <v>165.3999938964844</v>
       </c>
       <c r="AB33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
@@ -3347,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
         <v>35</v>
-      </c>
-      <c r="D34" t="s">
-        <v>36</v>
       </c>
       <c r="E34">
         <v>-37.189548477696192</v>
@@ -3416,7 +3413,7 @@
         <v>530.20001220703125</v>
       </c>
       <c r="AB34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
@@ -3427,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
         <v>35</v>
-      </c>
-      <c r="D35" t="s">
-        <v>36</v>
       </c>
       <c r="E35">
         <v>-34.275386195326057</v>
@@ -3496,7 +3493,7 @@
         <v>68.179496765136719</v>
       </c>
       <c r="AB35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
@@ -3507,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
         <v>35</v>
-      </c>
-      <c r="D36" t="s">
-        <v>36</v>
       </c>
       <c r="E36">
         <v>-35.38162568098511</v>
@@ -3576,7 +3573,7 @@
         <v>64.599998474121094</v>
       </c>
       <c r="AB36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
@@ -3587,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
         <v>35</v>
-      </c>
-      <c r="D37" t="s">
-        <v>36</v>
       </c>
       <c r="E37">
         <v>-38.294782040743051</v>
@@ -3656,7 +3653,7 @@
         <v>24.60000038146973</v>
       </c>
       <c r="AB37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
@@ -3667,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
         <v>35</v>
-      </c>
-      <c r="D38" t="s">
-        <v>36</v>
       </c>
       <c r="E38">
         <v>-38.294904034933957</v>
@@ -3736,7 +3733,7 @@
         <v>-1</v>
       </c>
       <c r="AB38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
@@ -3747,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
         <v>35</v>
-      </c>
-      <c r="D39" t="s">
-        <v>36</v>
       </c>
       <c r="E39">
         <v>-38.79011586804792</v>
@@ -3816,7 +3813,7 @@
         <v>-1</v>
       </c>
       <c r="AB39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
@@ -3827,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
         <v>35</v>
-      </c>
-      <c r="D40" t="s">
-        <v>36</v>
       </c>
       <c r="E40">
         <v>-34.702961613422453</v>
@@ -3896,7 +3893,7 @@
         <v>233</v>
       </c>
       <c r="AB40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
@@ -3907,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
         <v>35</v>
-      </c>
-      <c r="D41" t="s">
-        <v>36</v>
       </c>
       <c r="E41">
         <v>-36.043582515905427</v>
@@ -3976,7 +3973,7 @@
         <v>647.79998779296875</v>
       </c>
       <c r="AB41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
@@ -3987,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
         <v>35</v>
-      </c>
-      <c r="D42" t="s">
-        <v>36</v>
       </c>
       <c r="E42">
         <v>-35.502614677474718</v>
@@ -4056,7 +4053,7 @@
         <v>301.20001220703119</v>
       </c>
       <c r="AB42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
@@ -4067,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
         <v>35</v>
-      </c>
-      <c r="D43" t="s">
-        <v>36</v>
       </c>
       <c r="E43">
         <v>-38.979778156440567</v>
@@ -4136,7 +4133,7 @@
         <v>-1</v>
       </c>
       <c r="AB43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
@@ -4147,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
         <v>35</v>
-      </c>
-      <c r="D44" t="s">
-        <v>36</v>
       </c>
       <c r="E44">
         <v>-34.178299347932111</v>
@@ -4216,7 +4213,7 @@
         <v>259</v>
       </c>
       <c r="AB44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
@@ -4227,10 +4224,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
         <v>35</v>
-      </c>
-      <c r="D45" t="s">
-        <v>36</v>
       </c>
       <c r="E45">
         <v>-34.873578260212447</v>
@@ -4296,7 +4293,7 @@
         <v>662</v>
       </c>
       <c r="AB45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
@@ -4307,10 +4304,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
         <v>35</v>
-      </c>
-      <c r="D46" t="s">
-        <v>36</v>
       </c>
       <c r="E46">
         <v>-38.164259317359267</v>
@@ -4376,7 +4373,7 @@
         <v>4</v>
       </c>
       <c r="AB46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
@@ -4387,10 +4384,10 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
         <v>35</v>
-      </c>
-      <c r="D47" t="s">
-        <v>36</v>
       </c>
       <c r="E47">
         <v>-38.156270338153497</v>
@@ -4456,7 +4453,7 @@
         <v>-1</v>
       </c>
       <c r="AB47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
@@ -4467,10 +4464,10 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s">
         <v>35</v>
-      </c>
-      <c r="D48" t="s">
-        <v>36</v>
       </c>
       <c r="E48">
         <v>-37.545099668404113</v>
@@ -4536,7 +4533,7 @@
         <v>62.599998474121087</v>
       </c>
       <c r="AB48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
@@ -4547,10 +4544,10 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
         <v>35</v>
-      </c>
-      <c r="D49" t="s">
-        <v>36</v>
       </c>
       <c r="E49">
         <v>-35.989272666131043</v>
@@ -4616,7 +4613,7 @@
         <v>95.199996948242188</v>
       </c>
       <c r="AB49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
@@ -4627,10 +4624,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
         <v>35</v>
-      </c>
-      <c r="D50" t="s">
-        <v>36</v>
       </c>
       <c r="E50">
         <v>-38.378360741471312</v>
@@ -4696,7 +4693,7 @@
         <v>-1</v>
       </c>
       <c r="AB50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
@@ -4707,10 +4704,10 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s">
         <v>35</v>
-      </c>
-      <c r="D51" t="s">
-        <v>36</v>
       </c>
       <c r="E51">
         <v>-37.60628663953154</v>
@@ -4776,7 +4773,7 @@
         <v>57.799999237060547</v>
       </c>
       <c r="AB51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
@@ -4787,10 +4784,10 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s">
         <v>35</v>
-      </c>
-      <c r="D52" t="s">
-        <v>36</v>
       </c>
       <c r="E52">
         <v>-37.230912396226032</v>
@@ -4856,7 +4853,7 @@
         <v>143.88349914550781</v>
       </c>
       <c r="AB52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
@@ -4867,10 +4864,10 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
         <v>35</v>
-      </c>
-      <c r="D53" t="s">
-        <v>36</v>
       </c>
       <c r="E53">
         <v>-36.777188355226762</v>
@@ -4936,7 +4933,7 @@
         <v>1079.199951171875</v>
       </c>
       <c r="AB53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
@@ -4947,10 +4944,10 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" t="s">
         <v>35</v>
-      </c>
-      <c r="D54" t="s">
-        <v>36</v>
       </c>
       <c r="E54">
         <v>-35.112642725985637</v>
@@ -5016,7 +5013,7 @@
         <v>52.200000762939453</v>
       </c>
       <c r="AB54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
@@ -5027,10 +5024,10 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
         <v>35</v>
-      </c>
-      <c r="D55" t="s">
-        <v>36</v>
       </c>
       <c r="E55">
         <v>-38.073983938075088</v>
@@ -5096,7 +5093,7 @@
         <v>-1</v>
       </c>
       <c r="AB55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
@@ -5107,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
         <v>35</v>
-      </c>
-      <c r="D56" t="s">
-        <v>36</v>
       </c>
       <c r="E56">
         <v>-36.483005342080403</v>
@@ -5176,7 +5173,7 @@
         <v>942.79998779296875</v>
       </c>
       <c r="AB56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
@@ -5187,10 +5184,10 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
         <v>35</v>
-      </c>
-      <c r="D57" t="s">
-        <v>36</v>
       </c>
       <c r="E57">
         <v>-36.087587441900943</v>
@@ -5256,7 +5253,7 @@
         <v>182</v>
       </c>
       <c r="AB57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
@@ -5267,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" t="s">
         <v>35</v>
-      </c>
-      <c r="D58" t="s">
-        <v>36</v>
       </c>
       <c r="E58">
         <v>-38.848954031553049</v>
@@ -5336,7 +5333,7 @@
         <v>-1</v>
       </c>
       <c r="AB58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
@@ -5347,10 +5344,10 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s">
         <v>35</v>
-      </c>
-      <c r="D59" t="s">
-        <v>36</v>
       </c>
       <c r="E59">
         <v>-36.011061798949953</v>
@@ -5416,7 +5413,7 @@
         <v>135.61869812011719</v>
       </c>
       <c r="AB59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
@@ -5427,10 +5424,10 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" t="s">
         <v>35</v>
-      </c>
-      <c r="D60" t="s">
-        <v>36</v>
       </c>
       <c r="E60">
         <v>-38.221416497696893</v>
@@ -5496,7 +5493,7 @@
         <v>-1</v>
       </c>
       <c r="AB60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
@@ -5507,10 +5504,10 @@
         <v>0</v>
       </c>
       <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
         <v>35</v>
-      </c>
-      <c r="D61" t="s">
-        <v>36</v>
       </c>
       <c r="E61">
         <v>-38.754873354030913</v>
@@ -5576,7 +5573,7 @@
         <v>-1</v>
       </c>
       <c r="AB61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
@@ -5587,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" t="s">
         <v>35</v>
-      </c>
-      <c r="D62" t="s">
-        <v>36</v>
       </c>
       <c r="E62">
         <v>-34.284635707390841</v>
@@ -5656,7 +5653,7 @@
         <v>535.79998779296875</v>
       </c>
       <c r="AB62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
@@ -5667,10 +5664,10 @@
         <v>0</v>
       </c>
       <c r="C63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
         <v>35</v>
-      </c>
-      <c r="D63" t="s">
-        <v>36</v>
       </c>
       <c r="E63">
         <v>-34.199935615756161</v>
@@ -5736,7 +5733,7 @@
         <v>202.6000061035156</v>
       </c>
       <c r="AB63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
@@ -5747,10 +5744,10 @@
         <v>0</v>
       </c>
       <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
         <v>35</v>
-      </c>
-      <c r="D64" t="s">
-        <v>36</v>
       </c>
       <c r="E64">
         <v>-34.995194060643527</v>
@@ -5816,7 +5813,7 @@
         <v>69.199996948242188</v>
       </c>
       <c r="AB64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
@@ -5827,10 +5824,10 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
         <v>35</v>
-      </c>
-      <c r="D65" t="s">
-        <v>36</v>
       </c>
       <c r="E65">
         <v>-37.543220570550311</v>
@@ -5896,7 +5893,7 @@
         <v>89</v>
       </c>
       <c r="AB65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
